--- a/results/RIO.xlsx
+++ b/results/RIO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P135"/>
+  <dimension ref="A1:P181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7102,6 +7102,2250 @@
       </c>
       <c r="P135" t="n">
         <v>-9.3762312197724</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>70</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>1.7132169008255</v>
+      </c>
+      <c r="E136" t="n">
+        <v>41.75499364889064</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>44.6838031229158</v>
+      </c>
+      <c r="H136" t="n">
+        <v>47</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-4.910701332705067</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>2.928809474025158</v>
+      </c>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>131</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>2.589136600494385</v>
+      </c>
+      <c r="E137" t="n">
+        <v>14.88374461514605</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>14.88374461514605</v>
+      </c>
+      <c r="H137" t="n">
+        <v>52</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-24.61696655115012</v>
+      </c>
+      <c r="J137" t="n">
+        <v>21</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>165</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>2.609207630157471</v>
+      </c>
+      <c r="E138" t="n">
+        <v>10.90769119712422</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>14.00001462013686</v>
+      </c>
+      <c r="H138" t="n">
+        <v>18</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-13.3858278999345</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>3.092323423012644</v>
+      </c>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>221</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>2.974615335464477</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.1975403081695985</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>5.89927047304599</v>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-13.49937053363213</v>
+      </c>
+      <c r="J139" t="n">
+        <v>32</v>
+      </c>
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>6.096810781215589</v>
+      </c>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>487</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>5.902422904968262</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-6.919306546516406</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5.023259293417065</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-24.26594618802276</v>
+      </c>
+      <c r="J140" t="n">
+        <v>31</v>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>11.94256583993347</v>
+      </c>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>530</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>5.505439281463623</v>
+      </c>
+      <c r="E141" t="n">
+        <v>20.85055071813048</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>21.0580164600358</v>
+      </c>
+      <c r="H141" t="n">
+        <v>52</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-11.82574391271311</v>
+      </c>
+      <c r="J141" t="n">
+        <v>23</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>0.2074657419053167</v>
+      </c>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>624</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>8.706473350524902</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-5.162344202504459</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>10.49524270614107</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-26.53327653253924</v>
+      </c>
+      <c r="J142" t="n">
+        <v>9</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>40</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-20.39029622870027</v>
+      </c>
+      <c r="N142" t="n">
+        <v>15.65758690864553</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-15.22795202619581</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-30.88553893484134</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>656</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>8.141937255859375</v>
+      </c>
+      <c r="E143" t="n">
+        <v>20.37182106111434</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>39.59892000299008</v>
+      </c>
+      <c r="H143" t="n">
+        <v>39</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-15.19657849009977</v>
+      </c>
+      <c r="J143" t="n">
+        <v>8</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>8</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-14.8704119736127</v>
+      </c>
+      <c r="N143" t="n">
+        <v>19.22709894187575</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-35.24223303472704</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-54.46933197660278</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>676</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>8.257015228271484</v>
+      </c>
+      <c r="E144" t="n">
+        <v>35.96209472092517</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>38.17866736339465</v>
+      </c>
+      <c r="H144" t="n">
+        <v>52</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-1.853652126791079</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>28</v>
+      </c>
+      <c r="M144" t="n">
+        <v>15.43527754562544</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2.21657264246948</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-20.52681717529973</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-22.74338981776921</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>689</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>10.81919288635254</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.56281224806618</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>13.25890483238206</v>
+      </c>
+      <c r="H145" t="n">
+        <v>44</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-22.23852922969672</v>
+      </c>
+      <c r="J145" t="n">
+        <v>23</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>15</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-11.9018530692534</v>
+      </c>
+      <c r="N145" t="n">
+        <v>9.696092584315885</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-15.46466531731958</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-25.16075790163546</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>726</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>10.97165203094482</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-5.935176773903975</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>11.68508935778422</v>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-19.8788888020962</v>
+      </c>
+      <c r="J146" t="n">
+        <v>41</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>11</v>
+      </c>
+      <c r="M146" t="n">
+        <v>4.454057594820025</v>
+      </c>
+      <c r="N146" t="n">
+        <v>17.6202661316882</v>
+      </c>
+      <c r="O146" t="n">
+        <v>10.389234368724</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-7.231031762964198</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>780</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>10.55722999572754</v>
+      </c>
+      <c r="E147" t="n">
+        <v>7.938025256958888</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>12.77107898768494</v>
+      </c>
+      <c r="H147" t="n">
+        <v>52</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-18.7881746603046</v>
+      </c>
+      <c r="J147" t="n">
+        <v>25</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>8</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-11.75964028372753</v>
+      </c>
+      <c r="N147" t="n">
+        <v>4.833053730726053</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-19.69766554068642</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-24.53071927141247</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>820</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>11.17879962921143</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5.805633783351563</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>12.38484660811633</v>
+      </c>
+      <c r="H148" t="n">
+        <v>51</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-10.42664594351548</v>
+      </c>
+      <c r="J148" t="n">
+        <v>28</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>5</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-6.832667040385604</v>
+      </c>
+      <c r="N148" t="n">
+        <v>6.579212824764765</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-12.63830082373717</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-19.21751364850193</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>830</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>11.38908100128174</v>
+      </c>
+      <c r="E149" t="n">
+        <v>11.06136271545965</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>11.89644191744669</v>
+      </c>
+      <c r="H149" t="n">
+        <v>49</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-12.08047629118073</v>
+      </c>
+      <c r="J149" t="n">
+        <v>18</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>5</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-3.312523022123779</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.835079201987039</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-14.37388573758343</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-15.20896493957047</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>860</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>11.31888771057129</v>
+      </c>
+      <c r="E150" t="n">
+        <v>34.29477700785446</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>37.07601864136583</v>
+      </c>
+      <c r="H150" t="n">
+        <v>34</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-1.244804493236841</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>38</v>
+      </c>
+      <c r="M150" t="n">
+        <v>22.34674287374354</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2.781241633511371</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-11.94803413411091</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-14.72927576762228</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>885</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>12.7376298904419</v>
+      </c>
+      <c r="E151" t="n">
+        <v>79.53728905294869</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>81.67642692884763</v>
+      </c>
+      <c r="H151" t="n">
+        <v>51</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-2.936789844542241</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>13</v>
+      </c>
+      <c r="M151" t="n">
+        <v>8.719522882447189</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2.139137875898939</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-70.8177661705015</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-72.95690404640044</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>912</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>15.20067501068115</v>
+      </c>
+      <c r="E152" t="n">
+        <v>58.64075573325734</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>89.38008872079898</v>
+      </c>
+      <c r="H152" t="n">
+        <v>42</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-4.501269068739048</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>32</v>
+      </c>
+      <c r="M152" t="n">
+        <v>51.22459833429352</v>
+      </c>
+      <c r="N152" t="n">
+        <v>30.73933298754164</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-7.416157398963819</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-38.15549038650546</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>938</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>24.00412750244141</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-1.787482252788923</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>19.92542456900555</v>
+      </c>
+      <c r="H153" t="n">
+        <v>16</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-10.88909894491545</v>
+      </c>
+      <c r="J153" t="n">
+        <v>35</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>6</v>
+      </c>
+      <c r="M153" t="n">
+        <v>-4.236637108905833</v>
+      </c>
+      <c r="N153" t="n">
+        <v>21.71290682179448</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-2.449154856116909</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-24.16206167791139</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>26.72624397277832</v>
+      </c>
+      <c r="E154" t="n">
+        <v>65.16039645027716</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>88.02900430898799</v>
+      </c>
+      <c r="H154" t="n">
+        <v>32</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-3.896427780308943</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>37</v>
+      </c>
+      <c r="M154" t="n">
+        <v>61.15156103777485</v>
+      </c>
+      <c r="N154" t="n">
+        <v>22.86860785871083</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-4.008835412502314</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-26.87744327121315</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>27.34840393066406</v>
+      </c>
+      <c r="E155" t="n">
+        <v>70.96268492248808</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>83.75145605795419</v>
+      </c>
+      <c r="H155" t="n">
+        <v>31</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-2.789018630354333</v>
+      </c>
+      <c r="J155" t="n">
+        <v>18</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>36</v>
+      </c>
+      <c r="M155" t="n">
+        <v>57.4854586691439</v>
+      </c>
+      <c r="N155" t="n">
+        <v>12.78877113546611</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-13.47722625334418</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-26.26599738881029</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>32.90459060668945</v>
+      </c>
+      <c r="E156" t="n">
+        <v>42.09435456037922</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>61.41960385462476</v>
+      </c>
+      <c r="H156" t="n">
+        <v>48</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-19.20382123055966</v>
+      </c>
+      <c r="J156" t="n">
+        <v>8</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>26</v>
+      </c>
+      <c r="M156" t="n">
+        <v>30.89285894394462</v>
+      </c>
+      <c r="N156" t="n">
+        <v>19.32524929424554</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-11.2014956164346</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-30.52674491068014</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>43.85710525512695</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-44.05034080124542</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>26.14613506127628</v>
+      </c>
+      <c r="H157" t="n">
+        <v>34</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-52.13273818725344</v>
+      </c>
+      <c r="J157" t="n">
+        <v>49</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>6</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-1.79525274559345</v>
+      </c>
+      <c r="N157" t="n">
+        <v>70.19647586252169</v>
+      </c>
+      <c r="O157" t="n">
+        <v>42.25508805565197</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-27.94138780686973</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>47.20759201049805</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-56.59954067764794</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>17.19310575467513</v>
+      </c>
+      <c r="H158" t="n">
+        <v>11</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-78.48784553670509</v>
+      </c>
+      <c r="J158" t="n">
+        <v>33</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>24</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-36.05330569954216</v>
+      </c>
+      <c r="N158" t="n">
+        <v>73.79264643232307</v>
+      </c>
+      <c r="O158" t="n">
+        <v>20.54623497810579</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-53.24641145421728</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1066</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>42.40385818481445</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-48.60319665934893</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>30.46936198110159</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-76.05083464943476</v>
+      </c>
+      <c r="J159" t="n">
+        <v>22</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>13</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-28.80908520637568</v>
+      </c>
+      <c r="N159" t="n">
+        <v>79.07255864045052</v>
+      </c>
+      <c r="O159" t="n">
+        <v>19.79411145297325</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-59.27844718747727</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1104</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>19.71203231811523</v>
+      </c>
+      <c r="E160" t="n">
+        <v>75.82886605639094</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>78.6396539057891</v>
+      </c>
+      <c r="H160" t="n">
+        <v>42</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-16.93037591226818</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>15</v>
+      </c>
+      <c r="M160" t="n">
+        <v>7.799042108483759</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2.810787849398167</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-68.02982394790718</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-70.84061179730534</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1133</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>28.52583122253418</v>
+      </c>
+      <c r="E161" t="n">
+        <v>29.95447704364695</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>30.03257945566766</v>
+      </c>
+      <c r="H161" t="n">
+        <v>52</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-8.687361580798884</v>
+      </c>
+      <c r="J161" t="n">
+        <v>31</v>
+      </c>
+      <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>0.078102412020705</v>
+      </c>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1176</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>31.61035919189453</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.547414784541444</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>26.1534022728929</v>
+      </c>
+      <c r="H162" t="n">
+        <v>35</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-9.34280504230852</v>
+      </c>
+      <c r="J162" t="n">
+        <v>52</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>25</v>
+      </c>
+      <c r="M162" t="n">
+        <v>21.78406331480754</v>
+      </c>
+      <c r="N162" t="n">
+        <v>24.60598748835146</v>
+      </c>
+      <c r="O162" t="n">
+        <v>20.2366485302661</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-4.369338958085361</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>34.33930969238281</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-18.64564082647954</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>16.127970971131</v>
+      </c>
+      <c r="H163" t="n">
+        <v>28</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-21.2389721940792</v>
+      </c>
+      <c r="J163" t="n">
+        <v>52</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>18</v>
+      </c>
+      <c r="M163" t="n">
+        <v>12.10586408740254</v>
+      </c>
+      <c r="N163" t="n">
+        <v>34.77361179761054</v>
+      </c>
+      <c r="O163" t="n">
+        <v>30.75150491388208</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-4.022106883728467</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1254</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>31.63427352905273</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.945220726334568</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3.315232328571124</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-29.15098513573488</v>
+      </c>
+      <c r="J164" t="n">
+        <v>29</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>13</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-11.633182538692</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1.370011602236556</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-13.57840326502657</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-14.94841486726312</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1297</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>27.88018417358398</v>
+      </c>
+      <c r="E165" t="n">
+        <v>13.67293811707077</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>20.15953678902643</v>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-16.00723916676382</v>
+      </c>
+      <c r="J165" t="n">
+        <v>29</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>19</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-8.402225699697468</v>
+      </c>
+      <c r="N165" t="n">
+        <v>6.486598671955663</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-22.07516381676823</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-28.5617624887239</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1307</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>32.50448226928711</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-0.3113654674325522</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>3.064863120616967</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-27.95659312835518</v>
+      </c>
+      <c r="J166" t="n">
+        <v>19</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>9</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-21.43351811525956</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3.37622858804952</v>
+      </c>
+      <c r="O166" t="n">
+        <v>-21.12215264782701</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-24.49838123587653</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1343</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>30.43234825134277</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-2.602449403223941</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>11.8080776051364</v>
+      </c>
+      <c r="H167" t="n">
+        <v>17</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-8.858824781341669</v>
+      </c>
+      <c r="J167" t="n">
+        <v>33</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>28</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-2.645375537869356</v>
+      </c>
+      <c r="N167" t="n">
+        <v>14.41052700836034</v>
+      </c>
+      <c r="O167" t="n">
+        <v>-0.04292613464541439</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-14.45345314300576</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1496</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>28.0744571685791</v>
+      </c>
+      <c r="E168" t="n">
+        <v>34.81805716259437</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>41.8497711970797</v>
+      </c>
+      <c r="H168" t="n">
+        <v>50</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-4.204615303196345</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>28</v>
+      </c>
+      <c r="M168" t="n">
+        <v>17.37771213065254</v>
+      </c>
+      <c r="N168" t="n">
+        <v>7.031714034485333</v>
+      </c>
+      <c r="O168" t="n">
+        <v>-17.44034503194183</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-24.47205906642716</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1498</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>27.76982498168945</v>
+      </c>
+      <c r="E169" t="n">
+        <v>39.73874997201118</v>
+      </c>
+      <c r="F169" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>44.38920538503617</v>
+      </c>
+      <c r="H169" t="n">
+        <v>52</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-1.52786793290377</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>26</v>
+      </c>
+      <c r="M169" t="n">
+        <v>18.66533382657758</v>
+      </c>
+      <c r="N169" t="n">
+        <v>4.650455413024986</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-21.07341614543361</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-25.72387155845859</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1506</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>34.07991790771484</v>
+      </c>
+      <c r="E170" t="n">
+        <v>15.51793035160893</v>
+      </c>
+      <c r="F170" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>25.43380232243849</v>
+      </c>
+      <c r="H170" t="n">
+        <v>48</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-7.278603682468973</v>
+      </c>
+      <c r="J170" t="n">
+        <v>21</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>18</v>
+      </c>
+      <c r="M170" t="n">
+        <v>-3.306235634686338</v>
+      </c>
+      <c r="N170" t="n">
+        <v>9.915871970829565</v>
+      </c>
+      <c r="O170" t="n">
+        <v>-18.82416598629526</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-28.74003795712483</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>36.34597015380859</v>
+      </c>
+      <c r="E171" t="n">
+        <v>23.27595924297102</v>
+      </c>
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>40.26790175081302</v>
+      </c>
+      <c r="H171" t="n">
+        <v>41</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-3.60211096119586</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>47</v>
+      </c>
+      <c r="M171" t="n">
+        <v>34.38916829119768</v>
+      </c>
+      <c r="N171" t="n">
+        <v>16.99194250784201</v>
+      </c>
+      <c r="O171" t="n">
+        <v>11.11320904822667</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-5.87873345961534</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1618</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>52.42295455932617</v>
+      </c>
+      <c r="E172" t="n">
+        <v>24.3921733110965</v>
+      </c>
+      <c r="F172" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>35.75204371344603</v>
+      </c>
+      <c r="H172" t="n">
+        <v>51</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-8.107797760493469</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>25</v>
+      </c>
+      <c r="M172" t="n">
+        <v>19.4970180892471</v>
+      </c>
+      <c r="N172" t="n">
+        <v>11.35987040234953</v>
+      </c>
+      <c r="O172" t="n">
+        <v>-4.8951552218494</v>
+      </c>
+      <c r="P172" t="n">
+        <v>-16.25502562419893</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1621</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>56.69125366210938</v>
+      </c>
+      <c r="E173" t="n">
+        <v>13.76890215050233</v>
+      </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>25.53123734644271</v>
+      </c>
+      <c r="H173" t="n">
+        <v>48</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-4.857457664476754</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2</v>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>22</v>
+      </c>
+      <c r="M173" t="n">
+        <v>10.50005679190853</v>
+      </c>
+      <c r="N173" t="n">
+        <v>11.76233519594038</v>
+      </c>
+      <c r="O173" t="n">
+        <v>-3.268845358593802</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-15.03118055453418</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1661</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>63.97543334960938</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.84732298612778</v>
+      </c>
+      <c r="F174" t="b">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>15.57483027113636</v>
+      </c>
+      <c r="H174" t="n">
+        <v>35</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-21.86566831206033</v>
+      </c>
+      <c r="J174" t="n">
+        <v>15</v>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>44</v>
+      </c>
+      <c r="M174" t="n">
+        <v>2.636359820201522</v>
+      </c>
+      <c r="N174" t="n">
+        <v>3.727507285008588</v>
+      </c>
+      <c r="O174" t="n">
+        <v>-9.210963165926254</v>
+      </c>
+      <c r="P174" t="n">
+        <v>-12.93847045093484</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1688</v>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="n">
+        <v>67.72978973388672</v>
+      </c>
+      <c r="E175" t="n">
+        <v>34.43415636353519</v>
+      </c>
+      <c r="F175" t="b">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>43.40938682390084</v>
+      </c>
+      <c r="H175" t="n">
+        <v>49</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-6.745376395249969</v>
+      </c>
+      <c r="J175" t="n">
+        <v>21</v>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>17</v>
+      </c>
+      <c r="M175" t="n">
+        <v>-3.052916261474682</v>
+      </c>
+      <c r="N175" t="n">
+        <v>8.975230460365651</v>
+      </c>
+      <c r="O175" t="n">
+        <v>-37.48707262500987</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-46.46230308537552</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="n">
+        <v>86.46909332275391</v>
+      </c>
+      <c r="E176" t="n">
+        <v>7.063824035218226</v>
+      </c>
+      <c r="F176" t="b">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>16.03957454037222</v>
+      </c>
+      <c r="H176" t="n">
+        <v>23</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-21.63915178202176</v>
+      </c>
+      <c r="J176" t="n">
+        <v>38</v>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>36</v>
+      </c>
+      <c r="M176" t="n">
+        <v>-18.93674930033739</v>
+      </c>
+      <c r="N176" t="n">
+        <v>8.975750505153997</v>
+      </c>
+      <c r="O176" t="n">
+        <v>-26.00057333555562</v>
+      </c>
+      <c r="P176" t="n">
+        <v>-34.97632384070961</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1748</v>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="n">
+        <v>97.48157501220705</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-17.52977689390517</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>3.991895069316332</v>
+      </c>
+      <c r="H177" t="n">
+        <v>38</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-30.49156728784878</v>
+      </c>
+      <c r="J177" t="n">
+        <v>15</v>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>13</v>
+      </c>
+      <c r="M177" t="n">
+        <v>-28.09445488629859</v>
+      </c>
+      <c r="N177" t="n">
+        <v>21.5216719632215</v>
+      </c>
+      <c r="O177" t="n">
+        <v>-10.56467799239342</v>
+      </c>
+      <c r="P177" t="n">
+        <v>-32.08634995561492</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1775</v>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="n">
+        <v>88.97496032714844</v>
+      </c>
+      <c r="E178" t="n">
+        <v>18.11589927942812</v>
+      </c>
+      <c r="F178" t="b">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>23.7267371315526</v>
+      </c>
+      <c r="H178" t="n">
+        <v>52</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-15.83738027441991</v>
+      </c>
+      <c r="J178" t="n">
+        <v>34</v>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>14</v>
+      </c>
+      <c r="M178" t="n">
+        <v>-2.477987289796046</v>
+      </c>
+      <c r="N178" t="n">
+        <v>5.610837852124472</v>
+      </c>
+      <c r="O178" t="n">
+        <v>-20.59388656922417</v>
+      </c>
+      <c r="P178" t="n">
+        <v>-26.20472442134864</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1822</v>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="n">
+        <v>99.51149749755859</v>
+      </c>
+      <c r="E179" t="n">
+        <v>22.49685295086601</v>
+      </c>
+      <c r="F179" t="b">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>23.39078399088779</v>
+      </c>
+      <c r="H179" t="n">
+        <v>52</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-7.688805923074734</v>
+      </c>
+      <c r="J179" t="n">
+        <v>21</v>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>17</v>
+      </c>
+      <c r="M179" t="n">
+        <v>-0.9848985342598053</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.8939310400217835</v>
+      </c>
+      <c r="O179" t="n">
+        <v>-23.48175148512582</v>
+      </c>
+      <c r="P179" t="n">
+        <v>-24.3756825251476</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1859</v>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>106.8475952148438</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-0.9182184759318424</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>18.83704781978426</v>
+      </c>
+      <c r="H180" t="n">
+        <v>36</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-7.106218415103208</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>23</v>
+      </c>
+      <c r="M180" t="n">
+        <v>4.616940793137833</v>
+      </c>
+      <c r="N180" t="n">
+        <v>19.7552662957161</v>
+      </c>
+      <c r="O180" t="n">
+        <v>5.535159269069675</v>
+      </c>
+      <c r="P180" t="n">
+        <v>-14.22010702664643</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1868</v>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="n">
+        <v>112.8769378662109</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-4.249379824516449</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>12.48934478560346</v>
+      </c>
+      <c r="H181" t="n">
+        <v>27</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-11.52221885960549</v>
+      </c>
+      <c r="J181" t="n">
+        <v>42</v>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>14</v>
+      </c>
+      <c r="M181" t="n">
+        <v>-0.9711925767384065</v>
+      </c>
+      <c r="N181" t="n">
+        <v>16.7387246101199</v>
+      </c>
+      <c r="O181" t="n">
+        <v>3.278187247778042</v>
+      </c>
+      <c r="P181" t="n">
+        <v>-13.46053736234186</v>
       </c>
     </row>
   </sheetData>
@@ -7115,7 +9359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7328,40 +9572,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>46</v>
+      </c>
+      <c r="C4" t="n">
+        <v>69.56521739130434</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.75426028505872</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.76013055159927</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29.11619859212561</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29.36671314860689</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-16.57133531209132</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.61245286354817</v>
+      </c>
+      <c r="J4" t="n">
+        <v>84.78260869565217</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21.07692307692308</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23.07692307692308</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-10.46872139390691</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>73.2</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>14.64786484205908</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>10.33414763077571</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>27.51457072058034</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>28.86900194472522</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-12.94391356472691</v>
       </c>
     </row>
